--- a/biology/Botanique/Louis-Victor_Lefèvre/Louis-Victor_Lefèvre.xlsx
+++ b/biology/Botanique/Louis-Victor_Lefèvre/Louis-Victor_Lefèvre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis-Victor_Lef%C3%A8vre</t>
+          <t>Louis-Victor_Lefèvre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Victor Lefèvre est un instituteur et botaniste français, né le 22 août 1810 à Plessis-aux-Bois, commune de Vauciennes dans le département de l'Oise et mort le 13 août 1878 à Cuvergnon dans ce même département[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Victor Lefèvre est un instituteur et botaniste français, né le 22 août 1810 à Plessis-aux-Bois, commune de Vauciennes dans le département de l'Oise et mort le 13 août 1878 à Cuvergnon dans ce même département.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis-Victor_Lef%C3%A8vre</t>
+          <t>Louis-Victor_Lefèvre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Victor Lefèvre, instituteur à Cuvergnon, occupe une bonne partie de son temps libre à l'étude des plantes de sa région, et notamment, dès 1850, à des recherches approfondies sur l'un des groupes taxonomiques les plus complexes de la flore de France : les ronces (genre Rubus, famille des Rosacées). Pour ce faire, il est encouragé et aidé par son ami l'Abbé Questier, curé à Thury-en-Valois, qui récolte également de nombreux spécimens de ronce. Au début de l'année 1858, Lefèvre envoie un peu plus de cent trente spécimens d'herbier à l'un des spécialistes du genre à cette époque, le botaniste alsacien Philippe-Jacques Müller. Ce dernier publie en 1859 une monographie contenant la description de plusieurs centaines de nouvelles espèces pour la science, dont un peu plus d'une centaine sur la base de ses récoltes et de ses notes prises sur le terrain. Cette riche collaboration s'arrête dès 1862, à cause de difficultés relationnelles entre les deux botanistes[2]. Lefèvre publie par la suite la description d'autres espèces, soit dans le Bulletin de la Société Botanique de France, soit dans les travaux de l'Association rubologique coordonnée par Jean-Nicolas Boulay. Il est aussi l'auteur d'une flore analytique d'environ 400 pages, restée à l'état de manuscrit[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Victor Lefèvre, instituteur à Cuvergnon, occupe une bonne partie de son temps libre à l'étude des plantes de sa région, et notamment, dès 1850, à des recherches approfondies sur l'un des groupes taxonomiques les plus complexes de la flore de France : les ronces (genre Rubus, famille des Rosacées). Pour ce faire, il est encouragé et aidé par son ami l'Abbé Questier, curé à Thury-en-Valois, qui récolte également de nombreux spécimens de ronce. Au début de l'année 1858, Lefèvre envoie un peu plus de cent trente spécimens d'herbier à l'un des spécialistes du genre à cette époque, le botaniste alsacien Philippe-Jacques Müller. Ce dernier publie en 1859 une monographie contenant la description de plusieurs centaines de nouvelles espèces pour la science, dont un peu plus d'une centaine sur la base de ses récoltes et de ses notes prises sur le terrain. Cette riche collaboration s'arrête dès 1862, à cause de difficultés relationnelles entre les deux botanistes. Lefèvre publie par la suite la description d'autres espèces, soit dans le Bulletin de la Société Botanique de France, soit dans les travaux de l'Association rubologique coordonnée par Jean-Nicolas Boulay. Il est aussi l'auteur d'une flore analytique d'environ 400 pages, restée à l'état de manuscrit.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis-Victor_Lef%C3%A8vre</t>
+          <t>Louis-Victor_Lefèvre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1851 – A Messieurs les botanistes du département de l'Oise et des environs de Paris in Journal de Senlis 518 : 1. Version numérique sur le site de la Bibliothèque Municipale de Senlis. Un corrigenda de cet article est publié dans le no 519 de ce journal, en page 2 (Version numérique sur le site de la Bibliothèque Municipale de Senlis).
 1852 – Une promenade à la Tour-du-Grain, dans la Forêt de Villers-Cotterêts in Journal de Senlis 577 : 1. Version numérique sur le site de la Bibliothèque Municipale de Senlis.
